--- a/indicadores/tablas/230401.xlsx
+++ b/indicadores/tablas/230401.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -75,12 +75,6 @@
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">DIMENSIÓN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habitabilidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
@@ -103,6 +97,18 @@
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de habitaciones residenciales / Cantidad de personas en la vivienda (sin considerar el servicio doméstico)) x100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPOIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
   </si>
 </sst>
 </file>
@@ -624,6 +630,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/indicadores/tablas/230401.xlsx
+++ b/indicadores/tablas/230401.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/230401.xlsx
+++ b/indicadores/tablas/230401.xlsx
@@ -438,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -572,7 +572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/230401.xlsx
+++ b/indicadores/tablas/230401.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,100 +21,123 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
     <t xml:space="preserve">2006</t>
   </si>
   <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de personas que residen en viviendas con hacinamiento según definición del INE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Vivienda</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Hacinamiento</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porcentaje de personas que residen en viviendas con hacinamiento según definición del INE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide el porcentaje de personas que residen en viviendas con hacinamiento según definición del INE, es decir, con una relación de habitaciones por habitantes mayor a 2.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Cantidad de habitaciones residenciales / Cantidad de personas en la vivienda (sin considerar el servicio doméstico)) x100</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde marzo de 2020 hasta junio de 2021 se interrumpió el relevamiento presencial y se aplicó de manera telefónica un cuestionario restringido con el objetivo de continuar publicando los indicadores de ingresos y mercado de trabajo. En ese período la encuesta pasó a ser de paneles rotativos elegidos al azar a partir de los casos respondentes del año anterior. 
+En julio de 2021 el INE retomó la realización de encuestas presenciales, pero introdujo un cambio metodológico, ya que la ECH pasa a ser una encuesta de panel rotativo con periodicidad mensual compuesta por seis paneles o grupos de rotación, cada uno de los cuales es una muestra representativa de la población. Con esta nueva metodología, cada hogar seleccionado participa durante seis meses de la ECH.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMAD con base en Instituto de Economía, Universidad de la República (2020) Encuesta Continua de Hogares Compatibilizada 1981-2018 Versión 12 DOI: http://doiorg/1047426/ECHINE (Hasta 2019) / A partir de 2020 con base en ECH - INE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -433,12 +456,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -453,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +500,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +508,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7">
@@ -493,7 +516,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>6.1</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
@@ -509,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="12">
@@ -533,7 +556,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13">
@@ -541,7 +564,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>4.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="14">
@@ -549,7 +572,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>3.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
@@ -557,7 +580,31 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -567,75 +614,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
